--- a/data_process/xlsx/jongno_F3_processed.xlsx
+++ b/data_process/xlsx/jongno_F3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9885046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5728607</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>126.9842647</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5746617</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>127.0021216</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5830938</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.9804786</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5734072</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>127.0021216</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5830938</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0084331</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5653036</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>126.9732806</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5586371</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9789465</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5601693</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>126.9761683</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5718479</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>127.0033582</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.583733</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>127.0013729</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5764627</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>126.9713043</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5658284</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>127.003731</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5820626</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>126.9953938</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5679121</v>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1485,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>126.9884413</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5723808</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1551,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>126.986963</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5721952</v>
       </c>
     </row>
     <row r="18">
@@ -1511,8 +1617,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>127.0035471</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37.5803079</v>
       </c>
     </row>
     <row r="19">
@@ -1571,8 +1683,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>127.0020846</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.5839822</v>
       </c>
     </row>
     <row r="20">
@@ -1631,8 +1749,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>126.9868933</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.5713718</v>
       </c>
     </row>
     <row r="21">
@@ -1691,8 +1815,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>127.0039443</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37.5766721</v>
       </c>
     </row>
     <row r="22">
@@ -1751,8 +1881,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>127.0020846</v>
+      </c>
+      <c r="N22" t="n">
+        <v>37.5839822</v>
       </c>
     </row>
     <row r="23">
@@ -1811,8 +1947,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>126.9999822</v>
+      </c>
+      <c r="N23" t="n">
+        <v>37.5837443</v>
       </c>
     </row>
     <row r="24">
@@ -1871,8 +2013,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>126.9974355</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37.5837577</v>
       </c>
     </row>
     <row r="25">
@@ -1931,8 +2079,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>127.00679</v>
+      </c>
+      <c r="N25" t="n">
+        <v>37.5581865</v>
       </c>
     </row>
     <row r="26">
@@ -1991,8 +2145,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>127.00679</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37.5581865</v>
       </c>
     </row>
     <row r="27">
@@ -2051,8 +2211,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>126.9732196</v>
+      </c>
+      <c r="N27" t="n">
+        <v>37.5792232</v>
       </c>
     </row>
     <row r="28">
@@ -2111,8 +2277,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>126.9731379</v>
+      </c>
+      <c r="N28" t="n">
+        <v>37.573774</v>
       </c>
     </row>
     <row r="29">
@@ -2171,8 +2343,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>127.0037303</v>
+      </c>
+      <c r="N29" t="n">
+        <v>37.5809736</v>
       </c>
     </row>
     <row r="30">
@@ -2231,8 +2409,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>126.9728746</v>
+      </c>
+      <c r="N30" t="n">
+        <v>37.5763837</v>
       </c>
     </row>
     <row r="31">
@@ -2291,8 +2475,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>127.0001316</v>
+      </c>
+      <c r="N31" t="n">
+        <v>37.5865584</v>
       </c>
     </row>
     <row r="32">
@@ -2351,8 +2541,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>126.9716254</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37.5707169</v>
       </c>
     </row>
     <row r="33">
@@ -2411,8 +2607,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>126.9716254</v>
+      </c>
+      <c r="N33" t="n">
+        <v>37.5707169</v>
       </c>
     </row>
     <row r="34">
@@ -2471,8 +2673,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>126.9916603</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37.5623833</v>
       </c>
     </row>
     <row r="35">
@@ -2531,8 +2739,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>127.0073395</v>
+      </c>
+      <c r="N35" t="n">
+        <v>37.5616609</v>
       </c>
     </row>
     <row r="36">
@@ -2591,8 +2805,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>126.9740936</v>
+      </c>
+      <c r="N36" t="n">
+        <v>37.5592893</v>
       </c>
     </row>
     <row r="37">
@@ -2651,8 +2871,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>126.9670099</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.5740725</v>
       </c>
     </row>
     <row r="38">
@@ -2711,8 +2937,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>127.0031422</v>
+      </c>
+      <c r="N38" t="n">
+        <v>37.5602191</v>
       </c>
     </row>
     <row r="39">
@@ -2771,8 +3003,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:53</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>126.9954497</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37.5582922</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_F3_processed.xlsx
+++ b/data_process/xlsx/jongno_F3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,27 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
@@ -561,14 +571,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+          <t>https://pcmap.place.naver.com/restaurant/1978768836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143992399</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>126.9885046</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>37.5728607</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -627,14 +647,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+          <t>https://pcmap.place.naver.com/restaurant/1775512624/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144002625</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>126.9842647</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>37.5746617</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -693,14 +723,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+          <t>https://pcmap.place.naver.com/place/13412896/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144009439</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>127.0021216</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37.5830938</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>13412896</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -759,14 +799,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+          <t>https://pcmap.place.naver.com/place/1225239887/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144018179</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>126.9804786</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>37.5734072</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1225239887</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -791,7 +841,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -825,14 +875,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+          <t>https://pcmap.place.naver.com/place/13412895/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144029086</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>127.0021216</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>37.5830938</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>13412895</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -891,14 +951,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+          <t>https://pcmap.place.naver.com/place/1675852307/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144037852</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>127.0084331</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>37.5653036</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1675852307</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -923,7 +993,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -957,14 +1027,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+          <t>https://pcmap.place.naver.com/restaurant/37769968/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144046713</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>126.9732806</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>37.5586371</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https:</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -989,7 +1069,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1023,20 +1103,30 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+          <t>https://pcmap.place.naver.com/place/1176502853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144052285</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>126.9789465</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>37.5601693</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1176502853</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>세종문화회관 대극장</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1051,11 +1141,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1069,12 +1159,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>175 세종이야기</t>
+          <t>126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1084,25 +1174,35 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-940-4578</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>126.9761683</v>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144057526</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>37.5718479</v>
+        <v>127.0033582</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37.583733</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>11611690</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>세종문화회관 대극장</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1135,12 +1235,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>126 동덕여대 공연예술 연구소</t>
+          <t>175 세종이야기</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1150,19 +1250,29 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-399-1111</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>127.0033582</v>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144064349</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>37.583733</v>
+        <v>126.9761683</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.5718479</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>13412847</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1183,7 +1293,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1221,20 +1331,30 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144069934</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>127.0013729</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>37.5764627</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>37609050</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이화여자고등학교100주년기념관</t>
+          <t>더굿씨어터</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1244,7 +1364,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>부속건물</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1262,17 +1382,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>정동길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>144 중원빌딩 지하2층</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1282,19 +1402,29 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>02-777-4258</t>
+          <t>02-742-7779</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>126.9713043</v>
+          <t>https://pcmap.place.naver.com/place/1958045053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144075125</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>37.5658284</v>
+        <v>127.0020846</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.5839822</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1958045053</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1319,7 +1449,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1353,14 +1483,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+          <t>https://pcmap.place.naver.com/place/11639698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144080269</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>127.003731</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>37.5820626</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>11639698</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1385,7 +1525,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1419,20 +1559,30 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+          <t>https://pcmap.place.naver.com/place/427162972/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144085933</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>126.9953938</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>37.5679121</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>427162972</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>리엔터테인먼트</t>
+          <t>이화여자고등학교100주년기념관</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1442,7 +1592,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>부속건물</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1451,7 +1601,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1460,17 +1610,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>종로17길</t>
+          <t>정동길</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>50 3층 301호</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1480,25 +1630,35 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0507-1303-8439</t>
+          <t>02-777-4258</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>126.9884413</v>
+          <t>https://pcmap.place.naver.com/place/13283331/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144091069</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>37.5723808</v>
+        <v>126.9713043</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.5658284</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>13283331</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>에이비에스갤러리</t>
+          <t>리엔터테인먼트</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1508,7 +1668,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>미술,공예품</t>
+          <t>공연기획사</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1517,7 +1677,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1531,12 +1691,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>종로17길</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>14 3층</t>
+          <t>50 3층 301호</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1546,25 +1706,35 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0507-1314-8933</t>
+          <t>0507-1303-8439</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>126.986963</v>
+          <t>https://pcmap.place.naver.com/place/1887001748/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144099848</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>37.5721952</v>
+        <v>126.9884413</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37.5723808</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1887001748</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>미마지아트센터 물빛극장</t>
+          <t>에이비에스갤러리</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1574,7 +1744,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>미술,공예품</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1583,7 +1753,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>680</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1597,12 +1767,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>129 동원빌딩 지하 1층</t>
+          <t>14 3층</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1612,25 +1782,35 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>02-6404-5005</t>
+          <t>0507-1314-8933</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>127.0035471</v>
+          <t>https://pcmap.place.naver.com/place/1718874403/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144106631</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N18" t="n">
-        <v>37.5803079</v>
+        <v>126.986963</v>
+      </c>
+      <c r="O18" t="n">
+        <v>37.5721952</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1718874403</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>더굿씨어터</t>
+          <t>미마지아트센터 물빛극장</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1649,7 +1829,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>692</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1663,12 +1843,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>144 중원빌딩 지하2층</t>
+          <t>129 동원빌딩 지하 1층</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1678,19 +1858,29 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>010-2831-7871</t>
+          <t>02-6404-5005</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>127.0020846</v>
+          <t>https://pcmap.place.naver.com/place/11663674/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144113461</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>37.5839822</v>
+        <v>127.0035471</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.5803079</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>11663674</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1749,14 +1939,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+          <t>https://pcmap.place.naver.com/place/1652006730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144120218</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>126.9868933</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>37.5713718</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1652006730</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1815,14 +2015,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+          <t>https://pcmap.place.naver.com/place/1462945640/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144129113</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>127.0039443</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>37.5766721</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1462945640</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1881,20 +2091,30 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+          <t>https://pcmap.place.naver.com/place/1329893251/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144135884</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>127.0020846</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>37.5839822</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1329893251</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>유니시드</t>
+          <t>미송아트홀</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1904,7 +2124,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>협회,단체</t>
+          <t>장소대여</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1913,7 +2133,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1927,12 +2147,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>창경궁로29길</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>25 명륜빌딩 3층 미송아트홀</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1942,25 +2162,35 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0507-1315-0381</t>
+          <t>0507-1330-5791</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>126.9999822</v>
+          <t>https://pcmap.place.naver.com/place/30949204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144144726</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>37.5837443</v>
+        <v>126.9974355</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37.5837577</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>30949204</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>미송아트홀</t>
+          <t>유니시드</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1970,7 +2200,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>협회,단체</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1979,7 +2209,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1993,12 +2223,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>창경궁로29길</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>25 명륜빌딩3층 바다소리</t>
+          <t>254</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2008,19 +2238,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0507-1330-5791</t>
+          <t>0507-1315-0381</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>126.9974355</v>
+          <t>https://pcmap.place.naver.com/place/1270388997/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144151515</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N24" t="n">
-        <v>37.5837577</v>
+        <v>126.9999822</v>
+      </c>
+      <c r="O24" t="n">
+        <v>37.5837443</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1270388997</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2079,20 +2319,30 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+          <t>https://pcmap.place.naver.com/place/11622959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144158399</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>127.00679</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>37.5581865</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>11622959</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>일미터클래식</t>
+          <t>펀에이드</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2102,7 +2352,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>엔터테인먼트</t>
+          <t>문화,예술단체</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2120,17 +2370,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>자하문로10길</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>30 이룸빌딩 4층</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2140,25 +2390,35 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02-2128-2800</t>
+          <t>02-504-7568</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>127.00679</v>
+          <t>https://pcmap.place.naver.com/place/605736485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144164217</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N26" t="n">
-        <v>37.5581865</v>
+        <v>126.9732196</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.5792232</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>605736485</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>펀에이드</t>
+          <t>일미터클래식</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2168,7 +2428,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>문화,예술단체</t>
+          <t>엔터테인먼트</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2177,7 +2437,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2191,12 +2451,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>자하문로10길</t>
+          <t>종로1길</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>30 이룸빌딩 4층</t>
+          <t>50 더케이트윈타워 B동 3층 128</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2206,19 +2466,29 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02-504-7568</t>
+          <t>02-766-7623</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>126.9732196</v>
+          <t>https://pcmap.place.naver.com/place/13280793/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144169868</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N27" t="n">
-        <v>37.5792232</v>
+        <v>126.9791966</v>
+      </c>
+      <c r="O27" t="n">
+        <v>37.5746798</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>13280793</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2277,14 +2547,24 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+          <t>https://pcmap.place.naver.com/place/37615785/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144176580</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>126.9731379</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>37.573774</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>37615785</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2343,14 +2623,24 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+          <t>https://pcmap.place.naver.com/place/31676191/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144183457</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>127.0037303</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>37.5809736</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>31676191</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2409,14 +2699,24 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+          <t>https://pcmap.place.naver.com/place/37879959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144190296</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>126.9728746</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>37.5763837</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>37879959</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2475,14 +2775,24 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+          <t>https://pcmap.place.naver.com/place/1006025379/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144197093</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>127.0001316</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>37.5865584</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1006025379</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2541,14 +2851,24 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+          <t>https://pcmap.place.naver.com/place/1487684204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144205893</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>126.9716254</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>37.5707169</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1487684204</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2582,17 +2902,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>경희궁1길</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1 투바앤빌딩 3층 사무실</t>
+          <t>334 청평화시장</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2602,19 +2922,29 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0507-1392-0117</t>
+          <t>02-2233-2027</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>126.9716254</v>
+          <t>https://pcmap.place.naver.com/place/37608801/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144212157</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
       </c>
       <c r="N33" t="n">
-        <v>37.5707169</v>
+        <v>127.0149394</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37.5694885</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>37608801</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2673,14 +3003,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+          <t>https://pcmap.place.naver.com/place/19942730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144217376</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>126.9916603</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>37.5623833</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>19942730</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2739,14 +3079,24 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+          <t>https://pcmap.place.naver.com/place/599104763/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144226108</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>127.0073395</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>37.5616609</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>599104763</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2805,14 +3155,24 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+          <t>https://pcmap.place.naver.com/place/13021121/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144232256</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>126.9740936</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>37.5592893</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>13021121</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2871,14 +3231,24 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+          <t>https://pcmap.place.naver.com/place/31818817/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144237492</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>126.9670099</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>37.5740725</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>31818817</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2937,14 +3307,24 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+          <t>https://pcmap.place.naver.com/place/1567408396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144244261</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>127.0031422</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>37.5602191</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1567408396</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3003,14 +3383,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:53</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+          <t>https://pcmap.place.naver.com/place/1690067565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144253049</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:50:55</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>126.9954497</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>37.5582922</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1690067565</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_F3_processed.xlsx
+++ b/data_process/xlsx/jongno_F3_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-08-27 22:50:55</t>
+          <t>2023-09-05 15:38:17</t>
         </is>
       </c>
       <c r="N39" t="n">

--- a/data_process/xlsx/jongno_F3_processed.xlsx
+++ b/data_process/xlsx/jongno_F3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>라이브콘서트7080</t>
+          <t>갤러리콘서트카페 시가연</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>라이브카페</t>
+          <t>갤러리카페</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -551,12 +551,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>수표로</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>132-1</t>
+          <t>52 지하1층</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -566,35 +566,33 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-720-6244</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1978768836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143992399</t>
+          <t>https://pcmap.place.naver.com/restaurant/1775512624/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9842647&amp;y=37.5746617&amp;timestamp=202309071857</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>126.9885046</v>
+        <v>126.9842647</v>
       </c>
       <c r="O2" t="n">
-        <v>37.5728607</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>https:</t>
-        </is>
+        <v>37.5746617</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1775512624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>갤러리콘서트카페 시가연</t>
+          <t>라이브콘서트7080</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -604,7 +602,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>갤러리카페</t>
+          <t>라이브카페</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -613,7 +611,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -627,12 +625,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>수표로</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>52 지하1층</t>
+          <t>132-1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -642,29 +640,27 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02-720-6244</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/1775512624/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144002625</t>
+          <t>https://pcmap.place.naver.com/restaurant/1978768836/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9885046&amp;y=37.5728607&amp;timestamp=202309071857</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>126.9842647</v>
+        <v>126.9885046</v>
       </c>
       <c r="O3" t="n">
-        <v>37.5746617</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>https:</t>
-        </is>
+        <v>37.5728607</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1978768836</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +685,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -723,12 +719,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412896/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144009439</t>
+          <t>https://pcmap.place.naver.com/place/13412896/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.002138199919&amp;y=37.583956700947105&amp;timestamp=202309071857</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -737,16 +733,14 @@
       <c r="O4" t="n">
         <v>37.5830938</v>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>13412896</t>
-        </is>
+      <c r="P4" t="n">
+        <v>13412896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>클래식전용콘서트홀</t>
+          <t>교원투어 콘서트홀 교육장</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -756,7 +750,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>교육,학교</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -779,12 +773,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>종로5길</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>68 코리안리재보험</t>
+          <t>51-1 교원투어빌딩</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -794,35 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-397-0275</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1225239887/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144018179</t>
+          <t>https://pcmap.place.naver.com/place/1310596315/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.983539&amp;y=37.5691267&amp;timestamp=202309071857</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>126.9804786</v>
+        <v>126.983539</v>
       </c>
       <c r="O5" t="n">
-        <v>37.5734072</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1225239887</t>
-        </is>
+        <v>37.5691267</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1310596315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>브로드웨이아트홀 1관</t>
+          <t>클래식전용콘서트홀</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -841,7 +833,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -855,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>종로5길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>132 형원빌딩</t>
+          <t>68 코리안리재보험</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -875,30 +867,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412895/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144029086</t>
+          <t>https://pcmap.place.naver.com/place/1225239887/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98044619999997&amp;y=37.573435300000014&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>127.0021216</v>
+        <v>126.9804786</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5830938</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>13412895</t>
-        </is>
+        <v>37.5734072</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1225239887</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>포엄콘서트</t>
+          <t>브로드웨이아트홀 1관</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -908,7 +898,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -917,7 +907,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -926,17 +916,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>276 B1층 03호</t>
+          <t>132 형원빌딩</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -946,35 +936,33 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>02-2200-5531</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1675852307/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144037852</t>
+          <t>https://pcmap.place.naver.com/place/13412895/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00192300043&amp;y=37.58404300091999&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>127.0084331</v>
+        <v>127.0021216</v>
       </c>
       <c r="O7" t="n">
-        <v>37.5653036</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1675852307</t>
-        </is>
+        <v>37.5830938</v>
+      </c>
+      <c r="P7" t="n">
+        <v>13412895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>카페드콘서트</t>
+          <t>포엄콘서트</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -984,16 +972,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1007,12 +995,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>17 와이즈타워 1층</t>
+          <t>276 B1층 03호</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1022,35 +1010,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0507-1339-9519</t>
+          <t>02-2200-5531</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/restaurant/37769968/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144046713</t>
+          <t>https://pcmap.place.naver.com/place/1675852307/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0084388&amp;y=37.5653353&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>126.9732806</v>
+        <v>127.0084331</v>
       </c>
       <c r="O8" t="n">
-        <v>37.5586371</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>https:</t>
-        </is>
+        <v>37.5653036</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1675852307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>미니콘서트</t>
+          <t>카페드콘서트</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1060,7 +1046,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1069,7 +1055,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1083,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>남대문시장8길</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7 삼익패션타운 1층 55호 (남창동) 미니콘서트</t>
+          <t>17 와이즈타워 1층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1098,35 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>02-777-6548</t>
+          <t>0507-1339-9519</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1176502853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144052285</t>
+          <t>https://pcmap.place.naver.com/restaurant/37769968/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97327790550113&amp;y=37.558825416702255&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>126.9789465</v>
+        <v>126.9732806</v>
       </c>
       <c r="O9" t="n">
-        <v>37.5601693</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1176502853</t>
-        </is>
+        <v>37.5586371</v>
+      </c>
+      <c r="P9" t="n">
+        <v>37769968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>미니콘서트</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1136,7 +1120,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1145,7 +1129,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1154,17 +1138,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>남대문시장8길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>126 동덕여대 공연예술 연구소</t>
+          <t>7 삼익패션타운 1층 55호 (남창동) 미니콘서트</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1174,29 +1158,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-777-6548</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144057526</t>
+          <t>https://pcmap.place.naver.com/place/1176502853/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9789465&amp;y=37.5601693&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>127.0033582</v>
+        <v>126.9789465</v>
       </c>
       <c r="O10" t="n">
-        <v>37.583733</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>11611690</t>
-        </is>
+        <v>37.5601693</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1176502853</v>
       </c>
     </row>
     <row r="11">
@@ -1255,12 +1237,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144064349</t>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.976042200552&amp;y=37.5726952008458&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1269,16 +1251,14 @@
       <c r="O11" t="n">
         <v>37.5718479</v>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>13412847</t>
-        </is>
+      <c r="P11" t="n">
+        <v>13412847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>홍익대학교대학로아트센터 대극장</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1293,11 +1273,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1311,12 +1291,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1326,35 +1306,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>02-940-4578</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144069934</t>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003282700461&amp;y=37.58364340101469&amp;timestamp=202309071858</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>127.0013729</v>
+        <v>127.0033582</v>
       </c>
       <c r="O12" t="n">
-        <v>37.5764627</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>37609050</t>
-        </is>
+        <v>37.583733</v>
+      </c>
+      <c r="P12" t="n">
+        <v>11611690</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>더굿씨어터</t>
+          <t>홍익대학교대학로아트센터 대극장</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1392,7 +1370,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>144 중원빌딩 지하2층</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1402,35 +1380,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>02-742-7779</t>
+          <t>02-742-0300</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1958045053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144075125</t>
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.001482599612&amp;y=37.5767454012867&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>127.0020846</v>
+        <v>127.0013729</v>
       </c>
       <c r="O13" t="n">
-        <v>37.5839822</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1958045053</t>
-        </is>
+        <v>37.5764627</v>
+      </c>
+      <c r="P13" t="n">
+        <v>37609050</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>학전블루 소극장</t>
+          <t>더굿씨어터</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1445,11 +1421,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>623</v>
+        <v>37</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1463,12 +1439,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>대학로12길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>144 중원빌딩 지하2층</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1478,29 +1454,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>02-763-8233</t>
+          <t>02-742-7779</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11639698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144080269</t>
+          <t>https://pcmap.place.naver.com/place/1958045053/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0020846&amp;y=37.5839822&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>127.003731</v>
+        <v>127.0020846</v>
       </c>
       <c r="O14" t="n">
-        <v>37.5820626</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>11639698</t>
-        </is>
+        <v>37.5839822</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1958045053</v>
       </c>
     </row>
     <row r="15">
@@ -1521,11 +1495,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1559,12 +1533,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/427162972/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144085933</t>
+          <t>https://pcmap.place.naver.com/place/427162972/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.995365&amp;y=37.5679798&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1573,10 +1547,8 @@
       <c r="O15" t="n">
         <v>37.5679121</v>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>427162972</t>
-        </is>
+      <c r="P15" t="n">
+        <v>427162972</v>
       </c>
     </row>
     <row r="16">
@@ -1601,7 +1573,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1635,12 +1607,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13283331/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144091069</t>
+          <t>https://pcmap.place.naver.com/place/13283331/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9706692&amp;y=37.5662346&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1649,16 +1621,14 @@
       <c r="O16" t="n">
         <v>37.5658284</v>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>13283331</t>
-        </is>
+      <c r="P16" t="n">
+        <v>13283331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>리엔터테인먼트</t>
+          <t>학전블루 소극장</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1668,16 +1638,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>626</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1691,12 +1661,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>종로17길</t>
+          <t>대학로12길</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>50 3층 301호</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1706,35 +1676,33 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0507-1303-8439</t>
+          <t>02-763-8233</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1887001748/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144099848</t>
+          <t>https://pcmap.place.naver.com/place/11639698/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.003731&amp;y=37.5820626&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>126.9884413</v>
+        <v>127.003731</v>
       </c>
       <c r="O17" t="n">
-        <v>37.5723808</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>1887001748</t>
-        </is>
+        <v>37.5820626</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11639698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>에이비에스갤러리</t>
+          <t>리엔터테인먼트</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1744,7 +1712,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>미술,공예품</t>
+          <t>공연기획사</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1753,7 +1721,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1767,12 +1735,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>인사동길</t>
+          <t>종로17길</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14 3층</t>
+          <t>50 3층 301호</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1782,35 +1750,33 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0507-1314-8933</t>
+          <t>0507-1303-8439</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1718874403/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144106631</t>
+          <t>https://pcmap.place.naver.com/place/1887001748/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9884127&amp;y=37.5723805&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>126.986963</v>
+        <v>126.9884413</v>
       </c>
       <c r="O18" t="n">
-        <v>37.5721952</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1718874403</t>
-        </is>
+        <v>37.5723808</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1887001748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>미마지아트센터 물빛극장</t>
+          <t>에이비에스갤러리</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1820,7 +1786,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>미술,공예품</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1829,7 +1795,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>692</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1843,12 +1809,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>인사동길</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>129 동원빌딩 지하 1층</t>
+          <t>14 3층</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1858,29 +1824,27 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>02-6404-5005</t>
+          <t>0507-1314-8933</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11663674/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144113461</t>
+          <t>https://pcmap.place.naver.com/place/1718874403/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.986963&amp;y=37.5721952&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>127.0035471</v>
+        <v>126.986963</v>
       </c>
       <c r="O19" t="n">
-        <v>37.5803079</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>11663674</t>
-        </is>
+        <v>37.5721952</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1718874403</v>
       </c>
     </row>
     <row r="20">
@@ -1939,12 +1903,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1652006730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144120218</t>
+          <t>https://pcmap.place.naver.com/place/1652006730/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9868933&amp;y=37.5713718&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1953,10 +1917,8 @@
       <c r="O20" t="n">
         <v>37.5713718</v>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>1652006730</t>
-        </is>
+      <c r="P20" t="n">
+        <v>1652006730</v>
       </c>
     </row>
     <row r="21">
@@ -2015,12 +1977,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1462945640/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144129113</t>
+          <t>https://pcmap.place.naver.com/place/1462945640/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0039443&amp;y=37.5766721&amp;timestamp=202309071859</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2029,10 +1991,8 @@
       <c r="O21" t="n">
         <v>37.5766721</v>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1462945640</t>
-        </is>
+      <c r="P21" t="n">
+        <v>1462945640</v>
       </c>
     </row>
     <row r="22">
@@ -2091,12 +2051,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1329893251/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144135884</t>
+          <t>https://pcmap.place.naver.com/place/1329893251/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0020846&amp;y=37.5839822&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2105,16 +2065,14 @@
       <c r="O22" t="n">
         <v>37.5839822</v>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1329893251</t>
-        </is>
+      <c r="P22" t="n">
+        <v>1329893251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>미송아트홀</t>
+          <t>미마지아트센터 물빛극장</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2124,7 +2082,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>장소대여</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2133,7 +2091,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>692</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2147,12 +2105,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>창경궁로29길</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>25 명륜빌딩 3층 미송아트홀</t>
+          <t>129 동원빌딩 지하 1층</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2162,29 +2120,27 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0507-1330-5791</t>
+          <t>02-6404-5005</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/30949204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144144726</t>
+          <t>https://pcmap.place.naver.com/place/11663674/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00348550050198&amp;y=37.5803325013344&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>126.9974355</v>
+        <v>127.0035471</v>
       </c>
       <c r="O23" t="n">
-        <v>37.5837577</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>30949204</t>
-        </is>
+        <v>37.5803079</v>
+      </c>
+      <c r="P23" t="n">
+        <v>11663674</v>
       </c>
     </row>
     <row r="24">
@@ -2243,12 +2199,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1270388997/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144151515</t>
+          <t>https://pcmap.place.naver.com/place/1270388997/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9999802&amp;y=37.5837491&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2257,16 +2213,14 @@
       <c r="O24" t="n">
         <v>37.5837443</v>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>1270388997</t>
-        </is>
+      <c r="P24" t="n">
+        <v>1270388997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>장충체육관</t>
+          <t>미송아트홀</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2276,16 +2230,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>체육관</t>
+          <t>장소대여</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2294,17 +2248,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>창경궁로29길</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>25 명륜빌딩 3층 미송아트홀</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2314,35 +2268,33 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>02-2128-2800</t>
+          <t>0507-1330-5791</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11622959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144158399</t>
+          <t>https://pcmap.place.naver.com/place/30949204/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99743439954601&amp;y=37.58375790021691&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>127.00679</v>
+        <v>126.9974355</v>
       </c>
       <c r="O25" t="n">
-        <v>37.5581865</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>11622959</t>
-        </is>
+        <v>37.5837577</v>
+      </c>
+      <c r="P25" t="n">
+        <v>30949204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>펀에이드</t>
+          <t>장충체육관</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2352,7 +2304,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>문화,예술단체</t>
+          <t>체육관</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2370,17 +2322,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>자하문로10길</t>
+          <t>동호로</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>30 이룸빌딩 4층</t>
+          <t>241</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2390,35 +2342,33 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02-504-7568</t>
+          <t>02-2128-2800</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/605736485/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144164217</t>
+          <t>https://pcmap.place.naver.com/place/11622959/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00679000000184&amp;y=37.55818650000293&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>126.9732196</v>
+        <v>127.00679</v>
       </c>
       <c r="O26" t="n">
-        <v>37.5792232</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>605736485</t>
-        </is>
+        <v>37.5581865</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11622959</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>일미터클래식</t>
+          <t>펀에이드</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2428,7 +2378,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>엔터테인먼트</t>
+          <t>문화,예술단체</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2437,7 +2387,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2451,12 +2401,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>종로1길</t>
+          <t>자하문로10길</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50 더케이트윈타워 B동 3층 128</t>
+          <t>30 이룸빌딩 4층</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2466,35 +2416,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02-766-7623</t>
+          <t>02-504-7568</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13280793/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144169868</t>
+          <t>https://pcmap.place.naver.com/place/605736485/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.973221&amp;y=37.5792244&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>126.9791966</v>
+        <v>126.9732196</v>
       </c>
       <c r="O27" t="n">
-        <v>37.5746798</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>13280793</t>
-        </is>
+        <v>37.5792232</v>
+      </c>
+      <c r="P27" t="n">
+        <v>605736485</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>스튜디오 백</t>
+          <t>일미터클래식</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2504,7 +2452,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>엔터테인먼트</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2513,7 +2461,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2527,12 +2475,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>사직로8길</t>
+          <t>종로1길</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>42 광화문시대 1201호</t>
+          <t>50 더케이트윈타워 B동 3층 128</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2542,35 +2490,33 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0507-1362-3307</t>
+          <t>02-766-7623</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37615785/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144176580</t>
+          <t>https://pcmap.place.naver.com/place/13280793/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9790614&amp;y=37.5747887&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>126.9731379</v>
+        <v>126.9791966</v>
       </c>
       <c r="O28" t="n">
-        <v>37.573774</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>37615785</t>
-        </is>
+        <v>37.5746798</v>
+      </c>
+      <c r="P28" t="n">
+        <v>13280793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>브로드웨이아트홀 3관</t>
+          <t>스튜디오 백</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2580,7 +2526,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2589,7 +2535,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2603,12 +2549,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>대학로8길</t>
+          <t>사직로8길</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>42 광화문시대 1201호</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2618,35 +2564,33 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>02-742-4224</t>
+          <t>0507-1362-3307</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31676191/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144183457</t>
+          <t>https://pcmap.place.naver.com/place/37615785/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9731379&amp;y=37.573774&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>127.0037303</v>
+        <v>126.9731379</v>
       </c>
       <c r="O29" t="n">
-        <v>37.5809736</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>31676191</t>
-        </is>
+        <v>37.573774</v>
+      </c>
+      <c r="P29" t="n">
+        <v>37615785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>이스트파워코리아</t>
+          <t>브로드웨이아트홀 3관</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2656,7 +2600,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>시장</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2665,7 +2609,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2679,12 +2623,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>자하문로2길</t>
+          <t>대학로8길</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4 경복빌딩</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2694,35 +2638,33 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>070-5101-4073</t>
+          <t>02-742-4224</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37879959/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144190296</t>
+          <t>https://pcmap.place.naver.com/place/31676191/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00369480054901&amp;y=37.580975901203296&amp;timestamp=202309071900</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>126.9728746</v>
+        <v>127.0037303</v>
       </c>
       <c r="O30" t="n">
-        <v>37.5763837</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>37879959</t>
-        </is>
+        <v>37.5809736</v>
+      </c>
+      <c r="P30" t="n">
+        <v>31676191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>골든에이지컴퍼니</t>
+          <t>이스트파워코리아</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2732,7 +2674,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>시장</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2741,7 +2683,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2755,12 +2697,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>혜화로</t>
+          <t>자하문로2길</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11 2층</t>
+          <t>4 경복빌딩</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2770,35 +2712,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0507-1354-0638</t>
+          <t>070-5101-4073</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1006025379/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144197093</t>
+          <t>https://pcmap.place.naver.com/place/37879959/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9729207&amp;y=37.5764229&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>127.0001316</v>
+        <v>126.9728746</v>
       </c>
       <c r="O31" t="n">
-        <v>37.5865584</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1006025379</t>
-        </is>
+        <v>37.5763837</v>
+      </c>
+      <c r="P31" t="n">
+        <v>37879959</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>공공문화연구소</t>
+          <t>골든에이지컴퍼니</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2808,16 +2748,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>전시,행사대행</t>
+          <t>공연기획사</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2831,12 +2771,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>경희궁1길</t>
+          <t>혜화로</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1 투바앤빌딩 3층 사무실</t>
+          <t>11 2층</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2846,29 +2786,27 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0507-1392-0117</t>
+          <t>0507-1354-0638</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1487684204/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144205893</t>
+          <t>https://pcmap.place.naver.com/place/1006025379/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0001316&amp;y=37.5865584&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>126.9716254</v>
+        <v>127.0001316</v>
       </c>
       <c r="O32" t="n">
-        <v>37.5707169</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>1487684204</t>
-        </is>
+        <v>37.5865584</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1006025379</v>
       </c>
     </row>
     <row r="33">
@@ -2889,11 +2827,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2927,12 +2865,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37608801/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144212157</t>
+          <t>https://pcmap.place.naver.com/place/37608801/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0148791&amp;y=37.5695614&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2941,16 +2879,14 @@
       <c r="O33" t="n">
         <v>37.5694885</v>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>37608801</t>
-        </is>
+      <c r="P33" t="n">
+        <v>37608801</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>애드파크</t>
+          <t>공공문화연구소</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2960,16 +2896,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>인쇄업</t>
+          <t>전시,행사대행</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2978,17 +2914,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>퇴계로27길</t>
+          <t>경희궁1길</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>28 한영빌딩 401호</t>
+          <t>1 투바앤빌딩 3층 사무실</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2998,35 +2934,33 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>02-2268-3395</t>
+          <t>0507-1392-0117</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/19942730/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144217376</t>
+          <t>https://pcmap.place.naver.com/place/1487684204/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9716254&amp;y=37.5707169&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>126.9916603</v>
+        <v>126.9716254</v>
       </c>
       <c r="O34" t="n">
-        <v>37.5623833</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>19942730</t>
-        </is>
+        <v>37.5707169</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1487684204</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>배로메이드</t>
+          <t>애드파크</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3036,16 +2970,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>연예기획사</t>
+          <t>인쇄업</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3059,12 +2993,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>장충단로8길</t>
+          <t>퇴계로27길</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>14 탑빌딩 203호</t>
+          <t>28 한영빌딩 401호</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3074,35 +3008,33 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02-2279-6581</t>
+          <t>02-2268-3395</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/599104763/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144226108</t>
+          <t>https://pcmap.place.naver.com/place/19942730/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9916603&amp;y=37.5623833&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>127.0073395</v>
+        <v>126.9916603</v>
       </c>
       <c r="O35" t="n">
-        <v>37.5616609</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>599104763</t>
-        </is>
+        <v>37.5623833</v>
+      </c>
+      <c r="P35" t="n">
+        <v>19942730</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>숭례문학당</t>
+          <t>배로메이드</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3112,7 +3044,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>평생교육</t>
+          <t>연예기획사</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3135,12 +3067,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>장충단로8길</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>14 탑빌딩 203호</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3150,35 +3082,33 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>02-318-2032</t>
+          <t>02-2279-6581</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13021121/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144232256</t>
+          <t>https://pcmap.place.naver.com/place/599104763/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0072742&amp;y=37.561764&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>126.9740936</v>
+        <v>127.0073395</v>
       </c>
       <c r="O36" t="n">
-        <v>37.5592893</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>13021121</t>
-        </is>
+        <v>37.5616609</v>
+      </c>
+      <c r="P36" t="n">
+        <v>599104763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>에피쿠로스</t>
+          <t>숭례문학당</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3188,7 +3118,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>행사</t>
+          <t>평생교육</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3197,7 +3127,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3206,17 +3136,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>사직로</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>66-1 한라빌딩 2층 505호</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3226,35 +3156,33 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0507-1408-7327</t>
+          <t>02-318-2032</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31818817/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144237492</t>
+          <t>https://pcmap.place.naver.com/place/13021121/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97406522905732&amp;y=37.55929346282328&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>126.9670099</v>
+        <v>126.9740936</v>
       </c>
       <c r="O37" t="n">
-        <v>37.5740725</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>31818817</t>
-        </is>
+        <v>37.5592893</v>
+      </c>
+      <c r="P37" t="n">
+        <v>13021121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>브릭박스 스튜디오</t>
+          <t>에피쿠로스</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3264,7 +3192,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>공연기획사</t>
+          <t>행사</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3273,7 +3201,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3282,17 +3210,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>동호로</t>
+          <t>사직로</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>288 상지빌딩 B1층, 3층</t>
+          <t>66-1 한라빌딩 2층 505호</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3302,105 +3230,175 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0507-1476-0272</t>
+          <t>0507-1408-7327</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1567408396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144244261</t>
+          <t>https://pcmap.place.naver.com/place/31818817/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9669621&amp;y=37.574072&amp;timestamp=202309071901</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-09-05 15:38:17</t>
+          <t>2023-09-07 18:57:07</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>127.0031422</v>
+        <v>126.9670099</v>
       </c>
       <c r="O38" t="n">
-        <v>37.5602191</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>1567408396</t>
-        </is>
+        <v>37.5740725</v>
+      </c>
+      <c r="P38" t="n">
+        <v>31818817</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>브릭박스 스튜디오</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>공연기획사</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>동호로</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>288 상지빌딩 B1층, 3층</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0507-1476-0272</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1567408396/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0031422&amp;y=37.5602191&amp;timestamp=202309071901</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>127.0031422</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37.5602191</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1567408396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>더피트</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>F3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>공연기획사</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>4</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>중구</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>퇴계로36가길</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>46 2층</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>jongno</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>jongno</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>010-3346-5451</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>https://pcmap.place.naver.com/place/1690067565/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693144253049</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023-09-05 15:38:17</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1690067565/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954497&amp;y=37.5582922&amp;timestamp=202309071902</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:57:07</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>126.9954497</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O40" t="n">
         <v>37.5582922</v>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>1690067565</t>
-        </is>
+      <c r="P40" t="n">
+        <v>1690067565</v>
       </c>
     </row>
   </sheetData>
